--- a/Template_Projetos_v5.xlsx
+++ b/Template_Projetos_v5.xlsx
@@ -557,44 +557,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <b/>
@@ -785,169 +755,11 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color rgb="FF991B1B"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE2E2"/>
-          <bgColor rgb="FFFEE2E2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF92400E"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF3C7"/>
-          <bgColor rgb="FFFEF3C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF991B1B"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE2E2"/>
-          <bgColor rgb="FFFEE2E2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF92400E"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF3C7"/>
-          <bgColor rgb="FFFEF3C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF991B1B"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE2E2"/>
-          <bgColor rgb="FFFEE2E2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF374151"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F4F6"/>
-          <bgColor rgb="FFF3F4F6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF92400E"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF3C7"/>
-          <bgColor rgb="FFFEF3C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF991B1B"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE2E2"/>
-          <bgColor rgb="FFFEE2E2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF1E40AF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDBEAFE"/>
-          <bgColor rgb="FFDBEAFE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF065F46"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD1FAE5"/>
-          <bgColor rgb="FFD1FAE5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF374151"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F4F6"/>
-          <bgColor rgb="FFF3F4F6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF991B1B"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEE2E2"/>
-          <bgColor rgb="FFFEE2E2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF92400E"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF3C7"/>
-          <bgColor rgb="FFFEF3C7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF065F46"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD1FAE5"/>
-          <bgColor rgb="FFD1FAE5"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1251,9 +1063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9775,11 +9587,11 @@
     </row>
     <row r="441" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C441" s="6">
-        <f t="shared" ref="C441:C504" si="21">IFERROR(VLOOKUP(B441,TabelaProgresso,2,FALSE),0)</f>
+        <f t="shared" ref="C441:C491" si="21">IFERROR(VLOOKUP(B441,TabelaProgresso,2,FALSE),0)</f>
         <v>0</v>
       </c>
       <c r="D441" t="str">
-        <f t="shared" ref="D441:D504" si="22">IF(OR(E441="Não Iniciado",B441="Kickoff"),"Cinza",IF(OR(O441&gt;15,AND(G441&lt;&gt;"-",G441&lt;&gt;"",LEN(G441)&gt;0),E441="Atrasado",E441="Bloqueado"),"Vermelho",IF(AND(C441&gt;=60,OR(G441="-",G441="",LEN(G441)=0),E441&lt;&gt;"Atrasado"),"Verde","Amarelo")))</f>
+        <f t="shared" ref="D441:D491" si="22">IF(OR(E441="Não Iniciado",B441="Kickoff"),"Cinza",IF(OR(O441&gt;15,AND(G441&lt;&gt;"-",G441&lt;&gt;"",LEN(G441)&gt;0),E441="Atrasado",E441="Bloqueado"),"Vermelho",IF(AND(C441&gt;=60,OR(G441="-",G441="",LEN(G441)=0),E441&lt;&gt;"Atrasado"),"Verde","Amarelo")))</f>
         <v>Amarelo</v>
       </c>
       <c r="H441" s="7"/>
@@ -9787,7 +9599,7 @@
       <c r="O441" s="8"/>
       <c r="P441" s="7"/>
       <c r="R441" t="str">
-        <f t="shared" ref="R441:R504" si="23">IF(AND(Q441&lt;&gt;"",B441&lt;&gt;""),IF(IFERROR(MATCH(B441,Etapa,0),0)&lt;IFERROR(MATCH(Q441,Etapa,0),0),"⚠️ RETROCESSO",""),"")</f>
+        <f t="shared" ref="R441:R491" si="23">IF(AND(Q441&lt;&gt;"",B441&lt;&gt;""),IF(IFERROR(MATCH(B441,Etapa,0),0)&lt;IFERROR(MATCH(Q441,Etapa,0),0),"⚠️ RETROCESSO",""),"")</f>
         <v/>
       </c>
     </row>
@@ -10692,6 +10504,15 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A55">
+    <cfRule type="duplicateValues" dxfId="16" priority="258"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A22">
+    <cfRule type="duplicateValues" dxfId="15" priority="254"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A26">
+    <cfRule type="duplicateValues" dxfId="14" priority="256"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2:C491">
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -10705,65 +10526,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D491">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Verde"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"Amarelo"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"Vermelho"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Cinza"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E491">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Concluído"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Em Andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"Atrasado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>"Aguardando Cliente"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>"Não Iniciado"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>"Bloqueado"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I491">
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>AND($I2&lt;&gt;$H2,$H2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O491">
-    <cfRule type="expression" dxfId="5" priority="16">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>$O2&gt;15</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="17">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>AND($O2&gt;7,$O2&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R491">
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="0" priority="18">
       <formula>LEN($R2)&gt;0</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A22">
-    <cfRule type="duplicateValues" dxfId="2" priority="254"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A26">
-    <cfRule type="duplicateValues" dxfId="1" priority="256"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A55">
-    <cfRule type="duplicateValues" dxfId="0" priority="258"/>
   </conditionalFormatting>
   <dataValidations count="11">
     <dataValidation type="textLength" operator="greaterThan" error="Nome obrigatório" sqref="A2:A11 A27:A491" xr:uid="{00000000-0002-0000-0000-000000000000}">
